--- a/Atas/Ata 23 09 2001.xlsx
+++ b/Atas/Ata 23 09 2001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bandtec\Pesquisa e Inovação\Cultivo Inteligente\cultivo-inteligente\Atas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10238BA9-11BB-487B-A9AA-1F7A506E0A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347445B3-EC7B-469E-84A0-00648ABFB842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Beatriz</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>DATA DE ENTREGA</t>
+  </si>
+  <si>
+    <t>Reorganização do App de G.P</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="Q20" sqref="Q20:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,6 +784,15 @@
       <c r="I16" s="12"/>
       <c r="J16" s="13"/>
     </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="16">
+        <v>44462</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
     <row r="24" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
